--- a/data-raw/meta_analysis.xlsx
+++ b/data-raw/meta_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="15360" windowHeight="9000"/>
+    <workbookView xWindow="3060" yWindow="0" windowWidth="15360" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="148">
   <si>
     <t>Year</t>
   </si>
@@ -65,12 +65,6 @@
     <t>y_width</t>
   </si>
   <si>
-    <t>x_dist</t>
-  </si>
-  <si>
-    <t>y_dist</t>
-  </si>
-  <si>
     <t>barley</t>
   </si>
   <si>
@@ -420,6 +414,60 @@
   </si>
   <si>
     <t>williams.cotton.uniformity</t>
+  </si>
+  <si>
+    <t>lord.rice.uniformity</t>
+  </si>
+  <si>
+    <t>Ceylon</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>.20 acre</t>
+  </si>
+  <si>
+    <t>straw</t>
+  </si>
+  <si>
+    <t>ar1x</t>
+  </si>
+  <si>
+    <t>ar1y</t>
+  </si>
+  <si>
+    <t>Subset</t>
+  </si>
+  <si>
+    <t>Field10</t>
+  </si>
+  <si>
+    <t>Field11</t>
+  </si>
+  <si>
+    <t>Field12</t>
+  </si>
+  <si>
+    <t>Field14</t>
+  </si>
+  <si>
+    <t>Field13</t>
+  </si>
+  <si>
+    <t>Field26</t>
+  </si>
+  <si>
+    <t>Field27</t>
+  </si>
+  <si>
+    <t>Field28</t>
+  </si>
+  <si>
+    <t>x_centerdist</t>
+  </si>
+  <si>
+    <t>y_centerdist</t>
   </si>
 </sst>
 </file>
@@ -782,19 +830,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.21875" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -805,43 +854,52 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -849,31 +907,28 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>1930</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="D3">
-        <v>1930</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3">
         <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>26</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
       </c>
       <c r="L3">
         <v>4</v>
@@ -885,39 +940,39 @@
         <v>4</v>
       </c>
       <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
         <v>25.4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1931</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>1931</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
         <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>26</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -929,39 +984,39 @@
         <v>4</v>
       </c>
       <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
         <v>29.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1932</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="D5">
-        <v>1932</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
         <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>26</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -973,501 +1028,656 @@
         <v>4</v>
       </c>
       <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
         <v>29.4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7">
+        <v>1929</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15">
+        <v>1929</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
         <v>1939</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>36</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>12.5</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>36</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>12.5</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
+      <c r="E26">
         <v>1940</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
